--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Bernard_de_Montessus_de_Ballore/Ferdinand_Bernard_de_Montessus_de_Ballore.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Bernard_de_Montessus_de_Ballore/Ferdinand_Bernard_de_Montessus_de_Ballore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand Bernard de Montessus de Ballore, né le 15 mai 1817 à Chalon-sur-Saône (Saône-et-Loire) et mort le 12 mars 1899 à Rully (Saône-et-Loire), est un médecin et un ornithologue français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Bernard de Montessus de Ballore, né le 15 mai 1817 à Chalon-sur-Saône (Saône-et-Loire) et mort le 12 mars 1899 à Rully (Saône-et-Loire), est un médecin et un ornithologue français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut docteur en médecine, ancien interne des hôpitaux de Paris, chevalier de la Légion d'honneur, correspondant du ministère de l'instruction publique, fondateur et président de la société de sciences naturelles de Saône-et-Loire, président d'honneur de la société d'histoire naturelle d'Autun, membre de la Société d'histoire et d'archéologie de Chalon-sur-Saône, de la société d'agriculture de Chalon-sur-Saône, de la société Eduenne, de la société d'ornithologie de Franche-Comté et de plusieurs autres sociétés savantes, médecin honoraire de l'hôpital et de la prison de Chalon-sur-Saône, membre du Club alpin français, etc.
 Il a épousé en premières noces en 1850, Mlle Maria Préveraux (morte en 1853) et le 30 janvier 1855, Mlle Alphonsine Jeunet. Il n'eut pas de descendance.
